--- a/excel/finished/wg8#高炉/8高炉变料记录报表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉变料记录报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYSD 12\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2D2477-D075-4BEB-BD7E-B294BBA34013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D54D67-D774-40FB-B039-62762A052846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="高炉变料记录报表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -104,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +231,10 @@
   </si>
   <si>
     <t>H2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%当前日期%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -591,11 +593,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,6 +699,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,24 +986,24 @@
   <dimension ref="B1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:R5"/>
+      <selection activeCell="AC5" sqref="AC5:AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="7" width="5.625" customWidth="1"/>
-    <col min="8" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" customWidth="1"/>
-    <col min="17" max="18" width="5.75" customWidth="1"/>
-    <col min="19" max="19" width="6.375" customWidth="1"/>
-    <col min="20" max="25" width="5.75" customWidth="1"/>
-    <col min="26" max="26" width="7.625" customWidth="1"/>
-    <col min="29" max="29" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" customWidth="1"/>
+    <col min="17" max="18" width="5.77734375" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" customWidth="1"/>
+    <col min="20" max="25" width="5.77734375" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
+    <col min="29" max="29" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1018,12 +1032,14 @@
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:29" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="3" spans="2:29" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1057,7 @@
       <c r="N3" s="12"/>
       <c r="O3" s="13"/>
       <c r="P3" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
@@ -1054,7 +1070,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2">
         <v>1</v>
@@ -1083,30 +1099,30 @@
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T4" s="15"/>
       <c r="U4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1124,7 +1140,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
       <c r="P5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="10" t="str">
         <f>IF(_tag_day_all!A2="","",_tag_day_all!A2)</f>
@@ -1149,7 +1165,7 @@
       </c>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1167,7 +1183,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="3"/>
       <c r="P6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="10" t="str">
         <f>IF(_tag_day_all!A3="","",_tag_day_all!A3)</f>
@@ -1192,7 +1208,7 @@
       </c>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1226,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="3"/>
       <c r="P7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="10" t="str">
         <f>IF(_tag_day_all!A4="","",_tag_day_all!A4)</f>
@@ -1235,7 +1251,7 @@
       </c>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1253,7 +1269,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="3"/>
       <c r="P8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1267,7 +1283,7 @@
       <c r="Z8" s="3"/>
       <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1285,7 +1301,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
       <c r="P9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -1298,7 +1314,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="2:29" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:29" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1332,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="3"/>
       <c r="P10" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -1327,12 +1343,12 @@
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z10" s="13"/>
       <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1348,40 +1364,40 @@
       <c r="N11" s="2"/>
       <c r="O11" s="3"/>
       <c r="P11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="Y11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1399,7 +1415,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="3"/>
       <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1413,7 +1429,7 @@
       <c r="Z12" s="3"/>
       <c r="AC12" s="7"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1447,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="3"/>
       <c r="P13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1444,7 +1460,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1478,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="3"/>
       <c r="P14" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -1477,7 +1493,7 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1495,30 +1511,30 @@
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
       <c r="P15" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W15" s="15"/>
       <c r="X15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" s="3"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1547,7 +1563,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1576,7 +1592,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1605,7 +1621,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1634,9 +1650,9 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="2:26" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:26" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="B3:O3"/>
     <mergeCell ref="B1:Z1"/>
     <mergeCell ref="P3:Z3"/>
@@ -1644,6 +1660,7 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="P18:X18"/>
     <mergeCell ref="P19:X19"/>
@@ -1685,26 +1702,26 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1736,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1734,11 +1751,11 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <v>8</v>
